--- a/state_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
+++ b/state_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U241"/>
+  <dimension ref="A1:U262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.948424419841588</v>
+        <v>0.958652138126117</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -584,10 +584,10 @@
         <v>1.525</v>
       </c>
       <c r="M2" t="n">
-        <v>2.00601</v>
+        <v>2.008</v>
       </c>
       <c r="N2" t="n">
-        <v>2.549</v>
+        <v>2.74668</v>
       </c>
       <c r="O2" t="n">
         <v>1795267.373</v>
@@ -651,7 +651,7 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0131724684970683</v>
+        <v>0.0131846571754176</v>
       </c>
       <c r="H3" t="n">
         <v>0.05</v>
@@ -732,7 +732,7 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0131724684970683</v>
+        <v>0.0131846571754176</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
@@ -813,7 +813,7 @@
         <v>110</v>
       </c>
       <c r="G5" t="n">
-        <v>3604.12466817198</v>
+        <v>3386.76843985843</v>
       </c>
       <c r="H5" t="n">
         <v>111987</v>
@@ -898,7 +898,7 @@
         <v>110</v>
       </c>
       <c r="G6" t="n">
-        <v>3604.12466817198</v>
+        <v>3386.76843985843</v>
       </c>
       <c r="H6" t="n">
         <v>111987</v>
@@ -983,7 +983,7 @@
         <v>110</v>
       </c>
       <c r="G7" t="n">
-        <v>3604.12466817198</v>
+        <v>3386.76843985843</v>
       </c>
       <c r="H7" t="n">
         <v>111987</v>
@@ -1068,7 +1068,7 @@
         <v>110</v>
       </c>
       <c r="G8" t="n">
-        <v>3604.12466817198</v>
+        <v>3386.76843985843</v>
       </c>
       <c r="H8" t="n">
         <v>111987</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00308</v>
+        <v>0.00318</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0070348961280029</v>
+        <v>0.0070860306283867</v>
       </c>
       <c r="H9" t="n">
         <v>0.0500702740688165</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00299</v>
+        <v>0.00315</v>
       </c>
       <c r="M9" t="n">
         <v>0.01348</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00308</v>
+        <v>0.00318</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0070348961280029</v>
+        <v>0.0070860306283867</v>
       </c>
       <c r="H10" t="n">
         <v>0.0500702740688165</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00299</v>
+        <v>0.00315</v>
       </c>
       <c r="M10" t="n">
         <v>0.01348</v>
@@ -1315,7 +1315,7 @@
         <v>0.1585</v>
       </c>
       <c r="G11" t="n">
-        <v>0.162625217607925</v>
+        <v>0.162698952288752</v>
       </c>
       <c r="H11" t="n">
         <v>0.543</v>
@@ -1396,7 +1396,7 @@
         <v>0.1585</v>
       </c>
       <c r="G12" t="n">
-        <v>0.162625217607925</v>
+        <v>0.162698952288752</v>
       </c>
       <c r="H12" t="n">
         <v>0.543</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.083</v>
+        <v>0.0835</v>
       </c>
       <c r="G13" t="n">
-        <v>0.161639657270665</v>
+        <v>0.161746496013625</v>
       </c>
       <c r="H13" t="n">
         <v>0.627</v>
@@ -1484,7 +1484,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.01044</v>
+        <v>0.01062</v>
       </c>
       <c r="M13" t="n">
         <v>0.34594</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.083</v>
+        <v>0.0835</v>
       </c>
       <c r="G14" t="n">
-        <v>0.161639657270665</v>
+        <v>0.161746496013625</v>
       </c>
       <c r="H14" t="n">
         <v>0.627</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.01044</v>
+        <v>0.01062</v>
       </c>
       <c r="M14" t="n">
         <v>0.34594</v>
@@ -1939,7 +1939,7 @@
         <v>0.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1.01879693836658</v>
+        <v>1.02977302628169</v>
       </c>
       <c r="H19" t="n">
         <v>4</v>
@@ -1953,7 +1953,7 @@
         <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>2.15936</v>
+        <v>2.212</v>
       </c>
       <c r="N19" t="n">
         <v>3.522</v>
@@ -2020,7 +2020,7 @@
         <v>0.01</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0135405543479443</v>
+        <v>0.0135521205572772</v>
       </c>
       <c r="H20" t="n">
         <v>0.05</v>
@@ -2101,7 +2101,7 @@
         <v>0.01</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0135405543479443</v>
+        <v>0.0135521205572772</v>
       </c>
       <c r="H21" t="n">
         <v>0.05</v>
@@ -2182,7 +2182,7 @@
         <v>173</v>
       </c>
       <c r="G22" t="n">
-        <v>3664.58565952155</v>
+        <v>3450.9137413656</v>
       </c>
       <c r="H22" t="n">
         <v>111987</v>
@@ -2267,7 +2267,7 @@
         <v>173</v>
       </c>
       <c r="G23" t="n">
-        <v>3664.58565952155</v>
+        <v>3450.9137413656</v>
       </c>
       <c r="H23" t="n">
         <v>111987</v>
@@ -2352,7 +2352,7 @@
         <v>173</v>
       </c>
       <c r="G24" t="n">
-        <v>3664.58565952155</v>
+        <v>3450.9137413656</v>
       </c>
       <c r="H24" t="n">
         <v>111987</v>
@@ -2437,7 +2437,7 @@
         <v>173</v>
       </c>
       <c r="G25" t="n">
-        <v>3664.58565952155</v>
+        <v>3450.9137413656</v>
       </c>
       <c r="H25" t="n">
         <v>111987</v>
@@ -2522,7 +2522,7 @@
         <v>0.00611</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0094898248938802</v>
+        <v>0.009532810610544199</v>
       </c>
       <c r="H26" t="n">
         <v>0.0500702740688165</v>
@@ -2533,7 +2533,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00457</v>
+        <v>0.00482</v>
       </c>
       <c r="M26" t="n">
         <v>0.01775</v>
@@ -2603,7 +2603,7 @@
         <v>0.00611</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0094898248938802</v>
+        <v>0.009532810610544199</v>
       </c>
       <c r="H27" t="n">
         <v>0.0500702740688165</v>
@@ -2614,7 +2614,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00457</v>
+        <v>0.00482</v>
       </c>
       <c r="M27" t="n">
         <v>0.01775</v>
@@ -2684,7 +2684,7 @@
         <v>0.157</v>
       </c>
       <c r="G28" t="n">
-        <v>0.168768568090899</v>
+        <v>0.168800440161759</v>
       </c>
       <c r="H28" t="n">
         <v>0.661</v>
@@ -2765,7 +2765,7 @@
         <v>0.157</v>
       </c>
       <c r="G29" t="n">
-        <v>0.168768568090899</v>
+        <v>0.168800440161759</v>
       </c>
       <c r="H29" t="n">
         <v>0.661</v>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0885</v>
+        <v>0.08875</v>
       </c>
       <c r="G30" t="n">
-        <v>0.169880799183728</v>
+        <v>0.169939874609306</v>
       </c>
       <c r="H30" t="n">
         <v>0.726</v>
@@ -2853,7 +2853,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.0125</v>
+        <v>0.01245</v>
       </c>
       <c r="M30" t="n">
         <v>0.3456</v>
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0885</v>
+        <v>0.08875</v>
       </c>
       <c r="G31" t="n">
-        <v>0.169880799183728</v>
+        <v>0.169939874609306</v>
       </c>
       <c r="H31" t="n">
         <v>0.726</v>
@@ -2930,7 +2930,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.0125</v>
+        <v>0.01245</v>
       </c>
       <c r="M31" t="n">
         <v>0.3456</v>
@@ -3389,10 +3389,10 @@
         <v>0.5</v>
       </c>
       <c r="G37" t="n">
-        <v>1.40086553466131</v>
+        <v>1.3150463551307</v>
       </c>
       <c r="H37" t="n">
-        <v>10.5648124480839</v>
+        <v>6.59620648280937</v>
       </c>
       <c r="I37" t="n">
         <v>5.125</v>
@@ -3403,7 +3403,7 @@
         <v>1.9</v>
       </c>
       <c r="M37" t="n">
-        <v>2.453</v>
+        <v>2.63287</v>
       </c>
       <c r="N37" t="n">
         <v>3.844</v>
@@ -3470,7 +3470,7 @@
         <v>0.011</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0141949168818464</v>
+        <v>0.0142025270595698</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
@@ -3551,7 +3551,7 @@
         <v>0.011</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0141949168818464</v>
+        <v>0.0142025270595698</v>
       </c>
       <c r="H39" t="n">
         <v>0.05</v>
@@ -3632,7 +3632,7 @@
         <v>140</v>
       </c>
       <c r="G40" t="n">
-        <v>3653.83989680969</v>
+        <v>3440.16797865374</v>
       </c>
       <c r="H40" t="n">
         <v>111987</v>
@@ -3717,7 +3717,7 @@
         <v>140</v>
       </c>
       <c r="G41" t="n">
-        <v>3653.83989680969</v>
+        <v>3440.16797865374</v>
       </c>
       <c r="H41" t="n">
         <v>111987</v>
@@ -3802,7 +3802,7 @@
         <v>140</v>
       </c>
       <c r="G42" t="n">
-        <v>3653.83989680969</v>
+        <v>3440.16797865374</v>
       </c>
       <c r="H42" t="n">
         <v>111987</v>
@@ -3887,7 +3887,7 @@
         <v>140</v>
       </c>
       <c r="G43" t="n">
-        <v>3653.83989680969</v>
+        <v>3440.16797865374</v>
       </c>
       <c r="H43" t="n">
         <v>111987</v>
@@ -4049,7 +4049,7 @@
         <v>0.007</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0097568281777391</v>
+        <v>0.009777996215480899</v>
       </c>
       <c r="H45" t="n">
         <v>0.0500702740688165</v>
@@ -4060,7 +4060,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.00319</v>
+        <v>0.0032</v>
       </c>
       <c r="M45" t="n">
         <v>0.01775</v>
@@ -4130,7 +4130,7 @@
         <v>0.007</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0097568281777391</v>
+        <v>0.009777996215480899</v>
       </c>
       <c r="H46" t="n">
         <v>0.0500702740688165</v>
@@ -4141,7 +4141,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.00319</v>
+        <v>0.0032</v>
       </c>
       <c r="M46" t="n">
         <v>0.01775</v>
@@ -4211,7 +4211,7 @@
         <v>0.108</v>
       </c>
       <c r="G47" t="n">
-        <v>0.147952225834537</v>
+        <v>0.147918360932642</v>
       </c>
       <c r="H47" t="n">
         <v>0.6833</v>
@@ -4222,7 +4222,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.00256</v>
+        <v>0.00245</v>
       </c>
       <c r="M47" t="n">
         <v>0.31</v>
@@ -4292,7 +4292,7 @@
         <v>0.108</v>
       </c>
       <c r="G48" t="n">
-        <v>0.147952225834537</v>
+        <v>0.147918360932642</v>
       </c>
       <c r="H48" t="n">
         <v>0.6833</v>
@@ -4303,7 +4303,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.00256</v>
+        <v>0.00245</v>
       </c>
       <c r="M48" t="n">
         <v>0.31</v>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.096</v>
+        <v>0.09575</v>
       </c>
       <c r="G49" t="n">
-        <v>0.174223488820167</v>
+        <v>0.174256224290277</v>
       </c>
       <c r="H49" t="n">
         <v>0.726</v>
@@ -4380,7 +4380,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.0115</v>
+        <v>0.01155</v>
       </c>
       <c r="M49" t="n">
         <v>0.3515</v>
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.096</v>
+        <v>0.09575</v>
       </c>
       <c r="G50" t="n">
-        <v>0.174223488820167</v>
+        <v>0.174256224290277</v>
       </c>
       <c r="H50" t="n">
         <v>0.726</v>
@@ -4457,7 +4457,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.0115</v>
+        <v>0.01155</v>
       </c>
       <c r="M50" t="n">
         <v>0.3515</v>
@@ -4993,10 +4993,10 @@
         <v>0.5</v>
       </c>
       <c r="G57" t="n">
-        <v>1.4823746366976</v>
+        <v>1.38463612667663</v>
       </c>
       <c r="H57" t="n">
-        <v>10.5648124480839</v>
+        <v>6.59620648280937</v>
       </c>
       <c r="I57" t="n">
         <v>5.75</v>
@@ -5007,7 +5007,7 @@
         <v>1.4</v>
       </c>
       <c r="M57" t="n">
-        <v>2.818</v>
+        <v>3.03543</v>
       </c>
       <c r="N57" t="n">
         <v>3.924</v>
@@ -5074,7 +5074,7 @@
         <v>0.0105</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0126811217084848</v>
+        <v>0.0126851368656169</v>
       </c>
       <c r="H58" t="n">
         <v>0.043</v>
@@ -5155,7 +5155,7 @@
         <v>0.0105</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0126811217084848</v>
+        <v>0.0126851368656169</v>
       </c>
       <c r="H59" t="n">
         <v>0.043</v>
@@ -5236,7 +5236,7 @@
         <v>110</v>
       </c>
       <c r="G60" t="n">
-        <v>2879.139667602</v>
+        <v>2879.13693410538</v>
       </c>
       <c r="H60" t="n">
         <v>111987</v>
@@ -5321,7 +5321,7 @@
         <v>110</v>
       </c>
       <c r="G61" t="n">
-        <v>2879.139667602</v>
+        <v>2879.13693410538</v>
       </c>
       <c r="H61" t="n">
         <v>111987</v>
@@ -5406,7 +5406,7 @@
         <v>110</v>
       </c>
       <c r="G62" t="n">
-        <v>2879.139667602</v>
+        <v>2879.13693410538</v>
       </c>
       <c r="H62" t="n">
         <v>111987</v>
@@ -5491,7 +5491,7 @@
         <v>110</v>
       </c>
       <c r="G63" t="n">
-        <v>2879.139667602</v>
+        <v>2879.13693410538</v>
       </c>
       <c r="H63" t="n">
         <v>111987</v>
@@ -5653,7 +5653,7 @@
         <v>0.00579</v>
       </c>
       <c r="G65" t="n">
-        <v>0.008611864106816599</v>
+        <v>0.008623067975565999</v>
       </c>
       <c r="H65" t="n">
         <v>0.0467073644030479</v>
@@ -5664,7 +5664,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.00273</v>
+        <v>0.00274</v>
       </c>
       <c r="M65" t="n">
         <v>0.0165</v>
@@ -5734,7 +5734,7 @@
         <v>0.00579</v>
       </c>
       <c r="G66" t="n">
-        <v>0.008611864106816599</v>
+        <v>0.008623067975565999</v>
       </c>
       <c r="H66" t="n">
         <v>0.0467073644030479</v>
@@ -5745,7 +5745,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.00273</v>
+        <v>0.00274</v>
       </c>
       <c r="M66" t="n">
         <v>0.0165</v>
@@ -5815,7 +5815,7 @@
         <v>0.043</v>
       </c>
       <c r="G67" t="n">
-        <v>0.122266854862114</v>
+        <v>0.122188634110535</v>
       </c>
       <c r="H67" t="n">
         <v>0.6833</v>
@@ -5826,7 +5826,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.002</v>
+        <v>0.00146</v>
       </c>
       <c r="M67" t="n">
         <v>0.23789</v>
@@ -5896,7 +5896,7 @@
         <v>0.043</v>
       </c>
       <c r="G68" t="n">
-        <v>0.122266854862114</v>
+        <v>0.122188634110535</v>
       </c>
       <c r="H68" t="n">
         <v>0.6833</v>
@@ -5907,7 +5907,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.002</v>
+        <v>0.00146</v>
       </c>
       <c r="M68" t="n">
         <v>0.23789</v>
@@ -6047,10 +6047,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.066</v>
+        <v>0.0658</v>
       </c>
       <c r="G70" t="n">
-        <v>0.138260635671241</v>
+        <v>0.138266103643014</v>
       </c>
       <c r="H70" t="n">
         <v>0.726</v>
@@ -6124,10 +6124,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.066</v>
+        <v>0.0658</v>
       </c>
       <c r="G71" t="n">
-        <v>0.138260635671241</v>
+        <v>0.138266103643014</v>
       </c>
       <c r="H71" t="n">
         <v>0.726</v>
@@ -6674,7 +6674,7 @@
         <v>0.011</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0142315206890642</v>
+        <v>0.0142344427296028</v>
       </c>
       <c r="H78" t="n">
         <v>0.08699999999999999</v>
@@ -6755,7 +6755,7 @@
         <v>0.011</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0142315206890642</v>
+        <v>0.0142344427296028</v>
       </c>
       <c r="H79" t="n">
         <v>0.08699999999999999</v>
@@ -6836,7 +6836,7 @@
         <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>1686.8721863947</v>
+        <v>1686.87224130984</v>
       </c>
       <c r="H80" t="n">
         <v>49000</v>
@@ -6921,7 +6921,7 @@
         <v>100</v>
       </c>
       <c r="G81" t="n">
-        <v>1686.8721863947</v>
+        <v>1686.87224130984</v>
       </c>
       <c r="H81" t="n">
         <v>49000</v>
@@ -7006,7 +7006,7 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>1686.8721863947</v>
+        <v>1686.87224130984</v>
       </c>
       <c r="H82" t="n">
         <v>49000</v>
@@ -7091,7 +7091,7 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>1686.8721863947</v>
+        <v>1686.87224130984</v>
       </c>
       <c r="H83" t="n">
         <v>49000</v>
@@ -7250,10 +7250,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.00353</v>
+        <v>0.00388</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0077786261511771</v>
+        <v>0.0078039021337094</v>
       </c>
       <c r="H85" t="n">
         <v>0.0467073644030479</v>
@@ -7264,7 +7264,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.00262</v>
+        <v>0.00272</v>
       </c>
       <c r="M85" t="n">
         <v>0.01457</v>
@@ -7331,10 +7331,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.00353</v>
+        <v>0.00388</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0077786261511771</v>
+        <v>0.0078039021337094</v>
       </c>
       <c r="H86" t="n">
         <v>0.0467073644030479</v>
@@ -7345,7 +7345,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.00262</v>
+        <v>0.00272</v>
       </c>
       <c r="M86" t="n">
         <v>0.01457</v>
@@ -7415,7 +7415,7 @@
         <v>0.04355</v>
       </c>
       <c r="G87" t="n">
-        <v>0.127887477794923</v>
+        <v>0.127808477200331</v>
       </c>
       <c r="H87" t="n">
         <v>0.6833</v>
@@ -7426,7 +7426,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M87" t="n">
         <v>0.262</v>
@@ -7496,7 +7496,7 @@
         <v>0.04355</v>
       </c>
       <c r="G88" t="n">
-        <v>0.127887477794923</v>
+        <v>0.127808477200331</v>
       </c>
       <c r="H88" t="n">
         <v>0.6833</v>
@@ -7507,7 +7507,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M88" t="n">
         <v>0.262</v>
@@ -7647,27 +7647,27 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.055</v>
+        <v>0.0554</v>
       </c>
       <c r="G90" t="n">
-        <v>0.142115596778584</v>
+        <v>0.142145262300697</v>
       </c>
       <c r="H90" t="n">
         <v>0.726</v>
       </c>
       <c r="I90" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6254</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.0115</v>
+        <v>0.01155</v>
       </c>
       <c r="M90" t="n">
         <v>0.2971</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3739</v>
+        <v>0.37402</v>
       </c>
       <c r="O90" t="n">
         <v>1795267.373</v>
@@ -7724,27 +7724,27 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.055</v>
+        <v>0.0554</v>
       </c>
       <c r="G91" t="n">
-        <v>0.142115596778584</v>
+        <v>0.142145262300697</v>
       </c>
       <c r="H91" t="n">
         <v>0.726</v>
       </c>
       <c r="I91" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.6254</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.0115</v>
+        <v>0.01155</v>
       </c>
       <c r="M91" t="n">
         <v>0.2971</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3739</v>
+        <v>0.37402</v>
       </c>
       <c r="O91" t="n">
         <v>1795267.373</v>
@@ -8274,7 +8274,7 @@
         <v>0.0115</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0158075109607974</v>
+        <v>0.015808422952864</v>
       </c>
       <c r="H98" t="n">
         <v>0.08699999999999999</v>
@@ -8355,7 +8355,7 @@
         <v>0.0115</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0158075109607974</v>
+        <v>0.015808422952864</v>
       </c>
       <c r="H99" t="n">
         <v>0.08699999999999999</v>
@@ -8436,7 +8436,7 @@
         <v>96.5</v>
       </c>
       <c r="G100" t="n">
-        <v>1846.08747574841</v>
+        <v>1846.08753065906</v>
       </c>
       <c r="H100" t="n">
         <v>49000</v>
@@ -8521,7 +8521,7 @@
         <v>96.5</v>
       </c>
       <c r="G101" t="n">
-        <v>1846.08747574841</v>
+        <v>1846.08753065906</v>
       </c>
       <c r="H101" t="n">
         <v>49000</v>
@@ -8606,7 +8606,7 @@
         <v>96.5</v>
       </c>
       <c r="G102" t="n">
-        <v>1846.08747574841</v>
+        <v>1846.08753065906</v>
       </c>
       <c r="H102" t="n">
         <v>49000</v>
@@ -8691,7 +8691,7 @@
         <v>96.5</v>
       </c>
       <c r="G103" t="n">
-        <v>1846.08747574841</v>
+        <v>1846.08753065906</v>
       </c>
       <c r="H103" t="n">
         <v>49000</v>
@@ -8850,10 +8850,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.00233</v>
+        <v>0.00251</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0073646670416989</v>
+        <v>0.0074233775504554</v>
       </c>
       <c r="H105" t="n">
         <v>0.067504312150743</v>
@@ -8864,7 +8864,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.00217</v>
+        <v>0.00234</v>
       </c>
       <c r="M105" t="n">
         <v>0.01219</v>
@@ -8931,10 +8931,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.00233</v>
+        <v>0.00251</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0073646670416989</v>
+        <v>0.0074233775504554</v>
       </c>
       <c r="H106" t="n">
         <v>0.067504312150743</v>
@@ -8945,7 +8945,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>0.00217</v>
+        <v>0.00234</v>
       </c>
       <c r="M106" t="n">
         <v>0.01219</v>
@@ -9015,7 +9015,7 @@
         <v>0.0243</v>
       </c>
       <c r="G107" t="n">
-        <v>0.111803298065374</v>
+        <v>0.111760822716685</v>
       </c>
       <c r="H107" t="n">
         <v>0.6833</v>
@@ -9026,7 +9026,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00146</v>
+        <v>0.00115</v>
       </c>
       <c r="M107" t="n">
         <v>0.2058</v>
@@ -9096,7 +9096,7 @@
         <v>0.0243</v>
       </c>
       <c r="G108" t="n">
-        <v>0.111803298065374</v>
+        <v>0.111760822716685</v>
       </c>
       <c r="H108" t="n">
         <v>0.6833</v>
@@ -9107,7 +9107,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.00146</v>
+        <v>0.00115</v>
       </c>
       <c r="M108" t="n">
         <v>0.2058</v>
@@ -9250,24 +9250,24 @@
         <v>0.0305</v>
       </c>
       <c r="G110" t="n">
-        <v>0.124535989078868</v>
+        <v>0.124582897457212</v>
       </c>
       <c r="H110" t="n">
         <v>0.726</v>
       </c>
       <c r="I110" t="n">
-        <v>0.615</v>
+        <v>0.6149</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.0066</v>
+        <v>0.00686</v>
       </c>
       <c r="M110" t="n">
-        <v>0.247</v>
+        <v>0.24707</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3921</v>
+        <v>0.39222</v>
       </c>
       <c r="O110" t="n">
         <v>1795267.373</v>
@@ -9327,24 +9327,24 @@
         <v>0.0305</v>
       </c>
       <c r="G111" t="n">
-        <v>0.124535989078868</v>
+        <v>0.124582897457212</v>
       </c>
       <c r="H111" t="n">
         <v>0.726</v>
       </c>
       <c r="I111" t="n">
-        <v>0.615</v>
+        <v>0.6149</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.0066</v>
+        <v>0.00686</v>
       </c>
       <c r="M111" t="n">
-        <v>0.247</v>
+        <v>0.24707</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3921</v>
+        <v>0.39222</v>
       </c>
       <c r="O111" t="n">
         <v>1795267.373</v>
@@ -9874,10 +9874,10 @@
         <v>0.48</v>
       </c>
       <c r="G118" t="n">
-        <v>1.49031653058335</v>
+        <v>1.36229698331643</v>
       </c>
       <c r="H118" t="n">
-        <v>10.5648124480839</v>
+        <v>6.59620648280937</v>
       </c>
       <c r="I118" t="n">
         <v>6.415</v>
@@ -10117,7 +10117,7 @@
         <v>75</v>
       </c>
       <c r="G121" t="n">
-        <v>1362.63133126957</v>
+        <v>1362.63138711091</v>
       </c>
       <c r="H121" t="n">
         <v>49000</v>
@@ -10202,7 +10202,7 @@
         <v>75</v>
       </c>
       <c r="G122" t="n">
-        <v>1362.63133126957</v>
+        <v>1362.63138711091</v>
       </c>
       <c r="H122" t="n">
         <v>49000</v>
@@ -10287,7 +10287,7 @@
         <v>75</v>
       </c>
       <c r="G123" t="n">
-        <v>1362.63133126957</v>
+        <v>1362.63138711091</v>
       </c>
       <c r="H123" t="n">
         <v>49000</v>
@@ -10372,7 +10372,7 @@
         <v>75</v>
       </c>
       <c r="G124" t="n">
-        <v>1362.63133126957</v>
+        <v>1362.63138711091</v>
       </c>
       <c r="H124" t="n">
         <v>49000</v>
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.00205</v>
+        <v>0.00219</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0053441452270008</v>
+        <v>0.0054178838343179</v>
       </c>
       <c r="H126" t="n">
         <v>0.067504312150743</v>
@@ -10545,10 +10545,10 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00198</v>
+        <v>0.00214</v>
       </c>
       <c r="M126" t="n">
-        <v>0.00723</v>
+        <v>0.00754</v>
       </c>
       <c r="N126" t="n">
         <v>0.01743</v>
@@ -10612,10 +10612,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.00205</v>
+        <v>0.00219</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0053441452270008</v>
+        <v>0.0054178838343179</v>
       </c>
       <c r="H127" t="n">
         <v>0.067504312150743</v>
@@ -10626,10 +10626,10 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00198</v>
+        <v>0.00214</v>
       </c>
       <c r="M127" t="n">
-        <v>0.00723</v>
+        <v>0.00754</v>
       </c>
       <c r="N127" t="n">
         <v>0.01743</v>
@@ -10696,7 +10696,7 @@
         <v>0.0243</v>
       </c>
       <c r="G128" t="n">
-        <v>0.118083195448056</v>
+        <v>0.118060974430725</v>
       </c>
       <c r="H128" t="n">
         <v>0.6833</v>
@@ -10707,7 +10707,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00162</v>
+        <v>0.00132</v>
       </c>
       <c r="M128" t="n">
         <v>0.23221</v>
@@ -10777,7 +10777,7 @@
         <v>0.0243</v>
       </c>
       <c r="G129" t="n">
-        <v>0.118083195448056</v>
+        <v>0.118060974430725</v>
       </c>
       <c r="H129" t="n">
         <v>0.6833</v>
@@ -10788,7 +10788,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00162</v>
+        <v>0.00132</v>
       </c>
       <c r="M129" t="n">
         <v>0.23221</v>
@@ -10928,10 +10928,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.0285</v>
+        <v>0.0287</v>
       </c>
       <c r="G131" t="n">
-        <v>0.127952655745535</v>
+        <v>0.128007897457212</v>
       </c>
       <c r="H131" t="n">
         <v>0.6899999999999999</v>
@@ -10942,10 +10942,10 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.00656</v>
+        <v>0.00669</v>
       </c>
       <c r="M131" t="n">
-        <v>0.2422</v>
+        <v>0.24227</v>
       </c>
       <c r="N131" t="n">
         <v>0.4295</v>
@@ -11005,10 +11005,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.0285</v>
+        <v>0.0287</v>
       </c>
       <c r="G132" t="n">
-        <v>0.127952655745535</v>
+        <v>0.128007897457212</v>
       </c>
       <c r="H132" t="n">
         <v>0.6899999999999999</v>
@@ -11019,10 +11019,10 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.00656</v>
+        <v>0.00669</v>
       </c>
       <c r="M132" t="n">
-        <v>0.2422</v>
+        <v>0.24227</v>
       </c>
       <c r="N132" t="n">
         <v>0.4295</v>
@@ -11798,7 +11798,7 @@
         <v>82</v>
       </c>
       <c r="G142" t="n">
-        <v>1403.58048381194</v>
+        <v>1403.58053965329</v>
       </c>
       <c r="H142" t="n">
         <v>49000</v>
@@ -11883,7 +11883,7 @@
         <v>82</v>
       </c>
       <c r="G143" t="n">
-        <v>1403.58048381194</v>
+        <v>1403.58053965329</v>
       </c>
       <c r="H143" t="n">
         <v>49000</v>
@@ -11968,7 +11968,7 @@
         <v>82</v>
       </c>
       <c r="G144" t="n">
-        <v>1403.58048381194</v>
+        <v>1403.58053965329</v>
       </c>
       <c r="H144" t="n">
         <v>49000</v>
@@ -12053,7 +12053,7 @@
         <v>82</v>
       </c>
       <c r="G145" t="n">
-        <v>1403.58048381194</v>
+        <v>1403.58053965329</v>
       </c>
       <c r="H145" t="n">
         <v>49000</v>
@@ -12212,10 +12212,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.00268</v>
+        <v>0.00289</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0062570419325491</v>
+        <v>0.0063556492293351</v>
       </c>
       <c r="H147" t="n">
         <v>0.067504312150743</v>
@@ -12226,10 +12226,10 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.0022</v>
+        <v>0.00236</v>
       </c>
       <c r="M147" t="n">
-        <v>0.00889</v>
+        <v>0.00906</v>
       </c>
       <c r="N147" t="n">
         <v>0.02076</v>
@@ -12293,10 +12293,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.00268</v>
+        <v>0.00289</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0062570419325491</v>
+        <v>0.0063556492293351</v>
       </c>
       <c r="H148" t="n">
         <v>0.067504312150743</v>
@@ -12307,10 +12307,10 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>0.0022</v>
+        <v>0.00236</v>
       </c>
       <c r="M148" t="n">
-        <v>0.00889</v>
+        <v>0.00906</v>
       </c>
       <c r="N148" t="n">
         <v>0.02076</v>
@@ -12377,7 +12377,7 @@
         <v>0.05215</v>
       </c>
       <c r="G149" t="n">
-        <v>0.122337741255305</v>
+        <v>0.122392574708352</v>
       </c>
       <c r="H149" t="n">
         <v>0.631</v>
@@ -12388,7 +12388,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.00196</v>
+        <v>0.00183</v>
       </c>
       <c r="M149" t="n">
         <v>0.23221</v>
@@ -12458,7 +12458,7 @@
         <v>0.05215</v>
       </c>
       <c r="G150" t="n">
-        <v>0.122337741255305</v>
+        <v>0.122392574708352</v>
       </c>
       <c r="H150" t="n">
         <v>0.631</v>
@@ -12469,7 +12469,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00196</v>
+        <v>0.00183</v>
       </c>
       <c r="M150" t="n">
         <v>0.23221</v>
@@ -12612,7 +12612,7 @@
         <v>0.063</v>
       </c>
       <c r="G152" t="n">
-        <v>0.133277903068061</v>
+        <v>0.133351514934529</v>
       </c>
       <c r="H152" t="n">
         <v>0.6899999999999999</v>
@@ -12623,10 +12623,10 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
-        <v>0.00754</v>
+        <v>0.00767</v>
       </c>
       <c r="M152" t="n">
-        <v>0.2422</v>
+        <v>0.24227</v>
       </c>
       <c r="N152" t="n">
         <v>0.4155</v>
@@ -12689,7 +12689,7 @@
         <v>0.063</v>
       </c>
       <c r="G153" t="n">
-        <v>0.133277903068061</v>
+        <v>0.133351514934529</v>
       </c>
       <c r="H153" t="n">
         <v>0.6899999999999999</v>
@@ -12700,10 +12700,10 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
-        <v>0.00754</v>
+        <v>0.00767</v>
       </c>
       <c r="M153" t="n">
-        <v>0.2422</v>
+        <v>0.24227</v>
       </c>
       <c r="N153" t="n">
         <v>0.4155</v>
@@ -13479,7 +13479,7 @@
         <v>80</v>
       </c>
       <c r="G163" t="n">
-        <v>1394.85167025262</v>
+        <v>1394.85172609396</v>
       </c>
       <c r="H163" t="n">
         <v>49000</v>
@@ -13564,7 +13564,7 @@
         <v>80</v>
       </c>
       <c r="G164" t="n">
-        <v>1394.85167025262</v>
+        <v>1394.85172609396</v>
       </c>
       <c r="H164" t="n">
         <v>49000</v>
@@ -13649,7 +13649,7 @@
         <v>80</v>
       </c>
       <c r="G165" t="n">
-        <v>1394.85167025262</v>
+        <v>1394.85172609396</v>
       </c>
       <c r="H165" t="n">
         <v>49000</v>
@@ -13734,7 +13734,7 @@
         <v>80</v>
       </c>
       <c r="G166" t="n">
-        <v>1394.85167025262</v>
+        <v>1394.85172609396</v>
       </c>
       <c r="H166" t="n">
         <v>49000</v>
@@ -13893,10 +13893,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.00413</v>
+        <v>0.0043</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0074997452832018</v>
+        <v>0.0076284832166522</v>
       </c>
       <c r="H168" t="n">
         <v>0.067504312150743</v>
@@ -13907,13 +13907,13 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.0042</v>
+        <v>0.00442</v>
       </c>
       <c r="M168" t="n">
         <v>0.01138</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02128</v>
+        <v>0.02133</v>
       </c>
       <c r="O168" t="n">
         <v>1795267.373</v>
@@ -13974,10 +13974,10 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.00413</v>
+        <v>0.0043</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0074997452832018</v>
+        <v>0.0076284832166522</v>
       </c>
       <c r="H169" t="n">
         <v>0.067504312150743</v>
@@ -13988,13 +13988,13 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.0042</v>
+        <v>0.00442</v>
       </c>
       <c r="M169" t="n">
         <v>0.01138</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02128</v>
+        <v>0.02133</v>
       </c>
       <c r="O169" t="n">
         <v>1795267.373</v>
@@ -14058,7 +14058,7 @@
         <v>0.07895000000000001</v>
       </c>
       <c r="G170" t="n">
-        <v>0.141272826909825</v>
+        <v>0.141468181706334</v>
       </c>
       <c r="H170" t="n">
         <v>0.631</v>
@@ -14069,7 +14069,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.002</v>
+        <v>0.00274</v>
       </c>
       <c r="M170" t="n">
         <v>0.30965</v>
@@ -14139,7 +14139,7 @@
         <v>0.07895000000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>0.141272826909825</v>
+        <v>0.141468181706334</v>
       </c>
       <c r="H171" t="n">
         <v>0.631</v>
@@ -14150,7 +14150,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.002</v>
+        <v>0.00274</v>
       </c>
       <c r="M171" t="n">
         <v>0.30965</v>
@@ -14293,7 +14293,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G173" t="n">
-        <v>0.153265050245483</v>
+        <v>0.153343803888301</v>
       </c>
       <c r="H173" t="n">
         <v>0.6899999999999999</v>
@@ -14304,10 +14304,10 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
-        <v>0.00859</v>
+        <v>0.00872</v>
       </c>
       <c r="M173" t="n">
-        <v>0.3151</v>
+        <v>0.31522</v>
       </c>
       <c r="N173" t="n">
         <v>0.4385</v>
@@ -14370,7 +14370,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G174" t="n">
-        <v>0.153265050245483</v>
+        <v>0.153343803888301</v>
       </c>
       <c r="H174" t="n">
         <v>0.6899999999999999</v>
@@ -14381,10 +14381,10 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>0.00859</v>
+        <v>0.00872</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3151</v>
+        <v>0.31522</v>
       </c>
       <c r="N174" t="n">
         <v>0.4385</v>
@@ -15160,7 +15160,7 @@
         <v>69</v>
       </c>
       <c r="G184" t="n">
-        <v>561.670687181851</v>
+        <v>561.670599001319</v>
       </c>
       <c r="H184" t="n">
         <v>13000</v>
@@ -15245,7 +15245,7 @@
         <v>69</v>
       </c>
       <c r="G185" t="n">
-        <v>561.670687181851</v>
+        <v>561.670599001319</v>
       </c>
       <c r="H185" t="n">
         <v>13000</v>
@@ -15330,7 +15330,7 @@
         <v>69</v>
       </c>
       <c r="G186" t="n">
-        <v>561.670687181851</v>
+        <v>561.670599001319</v>
       </c>
       <c r="H186" t="n">
         <v>13000</v>
@@ -15415,7 +15415,7 @@
         <v>69</v>
       </c>
       <c r="G187" t="n">
-        <v>561.670687181851</v>
+        <v>561.670599001319</v>
       </c>
       <c r="H187" t="n">
         <v>13000</v>
@@ -15577,7 +15577,7 @@
         <v>0.005</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0084966670926337</v>
+        <v>0.008612112789493601</v>
       </c>
       <c r="H189" t="n">
         <v>0.067504312150743</v>
@@ -15588,7 +15588,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.00484</v>
+        <v>0.00495</v>
       </c>
       <c r="M189" t="n">
         <v>0.01466</v>
@@ -15658,7 +15658,7 @@
         <v>0.005</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0084966670926337</v>
+        <v>0.008612112789493601</v>
       </c>
       <c r="H190" t="n">
         <v>0.067504312150743</v>
@@ -15669,7 +15669,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>0.00484</v>
+        <v>0.00495</v>
       </c>
       <c r="M190" t="n">
         <v>0.01466</v>
@@ -15739,7 +15739,7 @@
         <v>0.081</v>
       </c>
       <c r="G191" t="n">
-        <v>0.138656246887771</v>
+        <v>0.138940505471688</v>
       </c>
       <c r="H191" t="n">
         <v>0.5590000000000001</v>
@@ -15750,7 +15750,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.00295</v>
+        <v>0.00383</v>
       </c>
       <c r="M191" t="n">
         <v>0.27997</v>
@@ -15820,7 +15820,7 @@
         <v>0.081</v>
       </c>
       <c r="G192" t="n">
-        <v>0.138656246887771</v>
+        <v>0.138940505471688</v>
       </c>
       <c r="H192" t="n">
         <v>0.5590000000000001</v>
@@ -15831,7 +15831,7 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.00295</v>
+        <v>0.00383</v>
       </c>
       <c r="M192" t="n">
         <v>0.27997</v>
@@ -15974,7 +15974,7 @@
         <v>0.092</v>
       </c>
       <c r="G194" t="n">
-        <v>0.150281446581159</v>
+        <v>0.15034031718368</v>
       </c>
       <c r="H194" t="n">
         <v>0.58</v>
@@ -15985,7 +15985,7 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
-        <v>0.00859</v>
+        <v>0.00872</v>
       </c>
       <c r="M194" t="n">
         <v>0.2892</v>
@@ -16051,7 +16051,7 @@
         <v>0.092</v>
       </c>
       <c r="G195" t="n">
-        <v>0.150281446581159</v>
+        <v>0.15034031718368</v>
       </c>
       <c r="H195" t="n">
         <v>0.58</v>
@@ -16062,7 +16062,7 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
-        <v>0.00859</v>
+        <v>0.00872</v>
       </c>
       <c r="M195" t="n">
         <v>0.2892</v>
@@ -16841,7 +16841,7 @@
         <v>54.5</v>
       </c>
       <c r="G205" t="n">
-        <v>324.553626016038</v>
+        <v>324.553536893331</v>
       </c>
       <c r="H205" t="n">
         <v>7900</v>
@@ -16926,7 +16926,7 @@
         <v>54.5</v>
       </c>
       <c r="G206" t="n">
-        <v>324.553626016038</v>
+        <v>324.553536893331</v>
       </c>
       <c r="H206" t="n">
         <v>7900</v>
@@ -17011,7 +17011,7 @@
         <v>54.5</v>
       </c>
       <c r="G207" t="n">
-        <v>324.553626016038</v>
+        <v>324.553536893331</v>
       </c>
       <c r="H207" t="n">
         <v>7900</v>
@@ -17096,7 +17096,7 @@
         <v>54.5</v>
       </c>
       <c r="G208" t="n">
-        <v>324.553626016038</v>
+        <v>324.553536893331</v>
       </c>
       <c r="H208" t="n">
         <v>7900</v>
@@ -17258,7 +17258,7 @@
         <v>0.00658</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0079291307325425</v>
+        <v>0.0080103792884737</v>
       </c>
       <c r="H210" t="n">
         <v>0.0310003519462233</v>
@@ -17269,13 +17269,13 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>0.00484</v>
+        <v>0.00495</v>
       </c>
       <c r="M210" t="n">
         <v>0.01451</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01909</v>
+        <v>0.01942</v>
       </c>
       <c r="O210" t="n">
         <v>1795267.373</v>
@@ -17339,7 +17339,7 @@
         <v>0.00658</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0079291307325425</v>
+        <v>0.0080103792884737</v>
       </c>
       <c r="H211" t="n">
         <v>0.0310003519462233</v>
@@ -17350,13 +17350,13 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>0.00484</v>
+        <v>0.00495</v>
       </c>
       <c r="M211" t="n">
         <v>0.01451</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01909</v>
+        <v>0.01942</v>
       </c>
       <c r="O211" t="n">
         <v>1795267.373</v>
@@ -17420,7 +17420,7 @@
         <v>0.042</v>
       </c>
       <c r="G212" t="n">
-        <v>0.125735347615778</v>
+        <v>0.125979916244184</v>
       </c>
       <c r="H212" t="n">
         <v>0.5590000000000001</v>
@@ -17431,7 +17431,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>0.00392</v>
+        <v>0.00497</v>
       </c>
       <c r="M212" t="n">
         <v>0.23988</v>
@@ -17501,7 +17501,7 @@
         <v>0.042</v>
       </c>
       <c r="G213" t="n">
-        <v>0.125735347615778</v>
+        <v>0.125979916244184</v>
       </c>
       <c r="H213" t="n">
         <v>0.5590000000000001</v>
@@ -17512,7 +17512,7 @@
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
-        <v>0.00392</v>
+        <v>0.00497</v>
       </c>
       <c r="M213" t="n">
         <v>0.23988</v>
@@ -17655,7 +17655,7 @@
         <v>0.045</v>
       </c>
       <c r="G215" t="n">
-        <v>0.136097350338931</v>
+        <v>0.136168718404497</v>
       </c>
       <c r="H215" t="n">
         <v>0.58</v>
@@ -17666,7 +17666,7 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
-        <v>0.01077</v>
+        <v>0.01088</v>
       </c>
       <c r="M215" t="n">
         <v>0.25235</v>
@@ -17732,7 +17732,7 @@
         <v>0.045</v>
       </c>
       <c r="G216" t="n">
-        <v>0.136097350338931</v>
+        <v>0.136168718404497</v>
       </c>
       <c r="H216" t="n">
         <v>0.58</v>
@@ -17743,7 +17743,7 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
-        <v>0.01077</v>
+        <v>0.01088</v>
       </c>
       <c r="M216" t="n">
         <v>0.25235</v>
@@ -18522,7 +18522,7 @@
         <v>46</v>
       </c>
       <c r="G226" t="n">
-        <v>289.019143257417</v>
+        <v>289.01905413471</v>
       </c>
       <c r="H226" t="n">
         <v>7900</v>
@@ -18607,7 +18607,7 @@
         <v>46</v>
       </c>
       <c r="G227" t="n">
-        <v>289.019143257417</v>
+        <v>289.01905413471</v>
       </c>
       <c r="H227" t="n">
         <v>7900</v>
@@ -18692,7 +18692,7 @@
         <v>46</v>
       </c>
       <c r="G228" t="n">
-        <v>289.019143257417</v>
+        <v>289.01905413471</v>
       </c>
       <c r="H228" t="n">
         <v>7900</v>
@@ -18777,7 +18777,7 @@
         <v>46</v>
       </c>
       <c r="G229" t="n">
-        <v>289.019143257417</v>
+        <v>289.01905413471</v>
       </c>
       <c r="H229" t="n">
         <v>7900</v>
@@ -18936,10 +18936,10 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0.00697</v>
+        <v>0.00708</v>
       </c>
       <c r="G231" t="n">
-        <v>0.008741571575166701</v>
+        <v>0.008803990802106801</v>
       </c>
       <c r="H231" t="n">
         <v>0.0310003519462233</v>
@@ -18950,7 +18950,7 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
-        <v>0.00599</v>
+        <v>0.00612</v>
       </c>
       <c r="M231" t="n">
         <v>0.0147</v>
@@ -19017,10 +19017,10 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0.00697</v>
+        <v>0.00708</v>
       </c>
       <c r="G232" t="n">
-        <v>0.008741571575166701</v>
+        <v>0.008803990802106801</v>
       </c>
       <c r="H232" t="n">
         <v>0.0310003519462233</v>
@@ -19031,7 +19031,7 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
-        <v>0.00599</v>
+        <v>0.00612</v>
       </c>
       <c r="M232" t="n">
         <v>0.0147</v>
@@ -19101,7 +19101,7 @@
         <v>0.037</v>
       </c>
       <c r="G233" t="n">
-        <v>0.114836613320665</v>
+        <v>0.115160338369248</v>
       </c>
       <c r="H233" t="n">
         <v>0.574</v>
@@ -19112,7 +19112,7 @@
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
-        <v>0.00436</v>
+        <v>0.00564</v>
       </c>
       <c r="M233" t="n">
         <v>0.23584</v>
@@ -19182,7 +19182,7 @@
         <v>0.037</v>
       </c>
       <c r="G234" t="n">
-        <v>0.114836613320665</v>
+        <v>0.115160338369248</v>
       </c>
       <c r="H234" t="n">
         <v>0.574</v>
@@ -19193,7 +19193,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
-        <v>0.00436</v>
+        <v>0.00564</v>
       </c>
       <c r="M234" t="n">
         <v>0.23584</v>
@@ -19336,7 +19336,7 @@
         <v>0.043</v>
       </c>
       <c r="G236" t="n">
-        <v>0.124978339137878</v>
+        <v>0.125042316997678</v>
       </c>
       <c r="H236" t="n">
         <v>0.622</v>
@@ -19347,7 +19347,7 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
-        <v>0.01283</v>
+        <v>0.013</v>
       </c>
       <c r="M236" t="n">
         <v>0.2482</v>
@@ -19413,7 +19413,7 @@
         <v>0.043</v>
       </c>
       <c r="G237" t="n">
-        <v>0.124978339137878</v>
+        <v>0.125042316997678</v>
       </c>
       <c r="H237" t="n">
         <v>0.622</v>
@@ -19424,7 +19424,7 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>0.01283</v>
+        <v>0.013</v>
       </c>
       <c r="M237" t="n">
         <v>0.2482</v>
@@ -19772,6 +19772,1687 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.3176</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>12</v>
+      </c>
+      <c r="G243" t="n">
+        <v>23.9318181818182</v>
+      </c>
+      <c r="H243" t="n">
+        <v>135</v>
+      </c>
+      <c r="I243" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M243" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="N243" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.477916666666667</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.4938</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.0134655172413793</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.0134655172413793</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G247" t="n">
+        <v>785.363881720917</v>
+      </c>
+      <c r="H247" t="n">
+        <v>32550</v>
+      </c>
+      <c r="I247" t="n">
+        <v>609</v>
+      </c>
+      <c r="J247" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K247" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="L247" t="n">
+        <v>30</v>
+      </c>
+      <c r="M247" t="n">
+        <v>173.84</v>
+      </c>
+      <c r="N247" t="n">
+        <v>323.68</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G248" t="n">
+        <v>785.363881720917</v>
+      </c>
+      <c r="H248" t="n">
+        <v>32550</v>
+      </c>
+      <c r="I248" t="n">
+        <v>609</v>
+      </c>
+      <c r="J248" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K248" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="L248" t="n">
+        <v>30</v>
+      </c>
+      <c r="M248" t="n">
+        <v>173.84</v>
+      </c>
+      <c r="N248" t="n">
+        <v>323.68</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G249" t="n">
+        <v>785.363881720917</v>
+      </c>
+      <c r="H249" t="n">
+        <v>32550</v>
+      </c>
+      <c r="I249" t="n">
+        <v>609</v>
+      </c>
+      <c r="J249" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K249" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="L249" t="n">
+        <v>30</v>
+      </c>
+      <c r="M249" t="n">
+        <v>173.84</v>
+      </c>
+      <c r="N249" t="n">
+        <v>323.68</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G250" t="n">
+        <v>785.363881720917</v>
+      </c>
+      <c r="H250" t="n">
+        <v>32550</v>
+      </c>
+      <c r="I250" t="n">
+        <v>609</v>
+      </c>
+      <c r="J250" t="n">
+        <v>5.17241379310345</v>
+      </c>
+      <c r="K250" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="L250" t="n">
+        <v>30</v>
+      </c>
+      <c r="M250" t="n">
+        <v>173.84</v>
+      </c>
+      <c r="N250" t="n">
+        <v>323.68</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>95</v>
+      </c>
+      <c r="G251" t="n">
+        <v>95.708</v>
+      </c>
+      <c r="H251" t="n">
+        <v>102</v>
+      </c>
+      <c r="I251" t="n">
+        <v>102</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="M251" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="N251" t="n">
+        <v>102</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0.00739</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.009087201426356901</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.0399538341411365</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>0.00612</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.02004</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>0.00739</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.009087201426356901</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.0399538341411365</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>0.00612</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.02004</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.118607028420984</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.4412</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0.00602</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.28224</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.118607028420984</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.4412</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>0.00602</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.28224</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P255" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>4.469</v>
+      </c>
+      <c r="G256" t="n">
+        <v>4.5708</v>
+      </c>
+      <c r="H256" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="I256" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>4.7545</v>
+      </c>
+      <c r="M256" t="n">
+        <v>6.0995</v>
+      </c>
+      <c r="N256" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.128610988572867</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.4572</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.01303</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.29172</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.39622</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.128610988572867</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.4572</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>0.01303</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.29172</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.39622</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.330862068965517</v>
+      </c>
+      <c r="H259" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.4492</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.330862068965517</v>
+      </c>
+      <c r="H260" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.4492</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.09456896551724139</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.1904</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.07864</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.09456896551724139</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.1904</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.07864</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
+++ b/state_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.958652138126117</v>
+        <v>0.962649067293231</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -587,7 +587,7 @@
         <v>2.008</v>
       </c>
       <c r="N2" t="n">
-        <v>2.74668</v>
+        <v>2.91903</v>
       </c>
       <c r="O2" t="n">
         <v>1795267.373</v>
@@ -813,13 +813,13 @@
         <v>110</v>
       </c>
       <c r="G5" t="n">
-        <v>3386.76843985843</v>
+        <v>3241.72517174801</v>
       </c>
       <c r="H5" t="n">
         <v>111987</v>
       </c>
       <c r="I5" t="n">
-        <v>20732.4</v>
+        <v>16255.23558</v>
       </c>
       <c r="J5" t="n">
         <v>24.1379310344828</v>
@@ -898,13 +898,13 @@
         <v>110</v>
       </c>
       <c r="G6" t="n">
-        <v>3386.76843985843</v>
+        <v>3241.72517174801</v>
       </c>
       <c r="H6" t="n">
         <v>111987</v>
       </c>
       <c r="I6" t="n">
-        <v>20732.4</v>
+        <v>16255.23558</v>
       </c>
       <c r="J6" t="n">
         <v>24.1379310344828</v>
@@ -983,13 +983,13 @@
         <v>110</v>
       </c>
       <c r="G7" t="n">
-        <v>3386.76843985843</v>
+        <v>3241.72517174801</v>
       </c>
       <c r="H7" t="n">
         <v>111987</v>
       </c>
       <c r="I7" t="n">
-        <v>20732.4</v>
+        <v>16255.23558</v>
       </c>
       <c r="J7" t="n">
         <v>24.1379310344828</v>
@@ -1068,13 +1068,13 @@
         <v>110</v>
       </c>
       <c r="G8" t="n">
-        <v>3386.76843985843</v>
+        <v>3241.72517174801</v>
       </c>
       <c r="H8" t="n">
         <v>111987</v>
       </c>
       <c r="I8" t="n">
-        <v>20732.4</v>
+        <v>16255.23558</v>
       </c>
       <c r="J8" t="n">
         <v>24.1379310344828</v>
@@ -1939,7 +1939,7 @@
         <v>0.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1.02977302628169</v>
+        <v>1.03406241368054</v>
       </c>
       <c r="H19" t="n">
         <v>4</v>
@@ -2182,13 +2182,13 @@
         <v>173</v>
       </c>
       <c r="G22" t="n">
-        <v>3450.9137413656</v>
+        <v>3308.32883373162</v>
       </c>
       <c r="H22" t="n">
         <v>111987</v>
       </c>
       <c r="I22" t="n">
-        <v>17218.95</v>
+        <v>16194.88261</v>
       </c>
       <c r="J22" t="n">
         <v>32.2033898305085</v>
@@ -2267,13 +2267,13 @@
         <v>173</v>
       </c>
       <c r="G23" t="n">
-        <v>3450.9137413656</v>
+        <v>3308.32883373162</v>
       </c>
       <c r="H23" t="n">
         <v>111987</v>
       </c>
       <c r="I23" t="n">
-        <v>17218.95</v>
+        <v>16194.88261</v>
       </c>
       <c r="J23" t="n">
         <v>32.2033898305085</v>
@@ -2352,13 +2352,13 @@
         <v>173</v>
       </c>
       <c r="G24" t="n">
-        <v>3450.9137413656</v>
+        <v>3308.32883373162</v>
       </c>
       <c r="H24" t="n">
         <v>111987</v>
       </c>
       <c r="I24" t="n">
-        <v>17218.95</v>
+        <v>16194.88261</v>
       </c>
       <c r="J24" t="n">
         <v>32.2033898305085</v>
@@ -2437,13 +2437,13 @@
         <v>173</v>
       </c>
       <c r="G25" t="n">
-        <v>3450.9137413656</v>
+        <v>3308.32883373162</v>
       </c>
       <c r="H25" t="n">
         <v>111987</v>
       </c>
       <c r="I25" t="n">
-        <v>17218.95</v>
+        <v>16194.88261</v>
       </c>
       <c r="J25" t="n">
         <v>32.2033898305085</v>
@@ -3389,10 +3389,10 @@
         <v>0.5</v>
       </c>
       <c r="G37" t="n">
-        <v>1.3150463551307</v>
+        <v>1.31784674349552</v>
       </c>
       <c r="H37" t="n">
-        <v>6.59620648280937</v>
+        <v>6.53515752241437</v>
       </c>
       <c r="I37" t="n">
         <v>5.125</v>
@@ -3403,7 +3403,7 @@
         <v>1.9</v>
       </c>
       <c r="M37" t="n">
-        <v>2.63287</v>
+        <v>2.72608</v>
       </c>
       <c r="N37" t="n">
         <v>3.844</v>
@@ -3632,13 +3632,13 @@
         <v>140</v>
       </c>
       <c r="G40" t="n">
-        <v>3440.16797865374</v>
+        <v>3297.58307101976</v>
       </c>
       <c r="H40" t="n">
         <v>111987</v>
       </c>
       <c r="I40" t="n">
-        <v>17218.95</v>
+        <v>16194.88261</v>
       </c>
       <c r="J40" t="n">
         <v>32.2033898305085</v>
@@ -3717,13 +3717,13 @@
         <v>140</v>
       </c>
       <c r="G41" t="n">
-        <v>3440.16797865374</v>
+        <v>3297.58307101976</v>
       </c>
       <c r="H41" t="n">
         <v>111987</v>
       </c>
       <c r="I41" t="n">
-        <v>17218.95</v>
+        <v>16194.88261</v>
       </c>
       <c r="J41" t="n">
         <v>32.2033898305085</v>
@@ -3802,13 +3802,13 @@
         <v>140</v>
       </c>
       <c r="G42" t="n">
-        <v>3440.16797865374</v>
+        <v>3297.58307101976</v>
       </c>
       <c r="H42" t="n">
         <v>111987</v>
       </c>
       <c r="I42" t="n">
-        <v>17218.95</v>
+        <v>16194.88261</v>
       </c>
       <c r="J42" t="n">
         <v>32.2033898305085</v>
@@ -3887,13 +3887,13 @@
         <v>140</v>
       </c>
       <c r="G43" t="n">
-        <v>3440.16797865374</v>
+        <v>3297.58307101976</v>
       </c>
       <c r="H43" t="n">
         <v>111987</v>
       </c>
       <c r="I43" t="n">
-        <v>17218.95</v>
+        <v>16194.88261</v>
       </c>
       <c r="J43" t="n">
         <v>32.2033898305085</v>
@@ -4993,10 +4993,10 @@
         <v>0.5</v>
       </c>
       <c r="G57" t="n">
-        <v>1.38463612667663</v>
+        <v>1.3878254578699</v>
       </c>
       <c r="H57" t="n">
-        <v>6.59620648280937</v>
+        <v>6.53515752241437</v>
       </c>
       <c r="I57" t="n">
         <v>5.75</v>
@@ -5007,7 +5007,7 @@
         <v>1.4</v>
       </c>
       <c r="M57" t="n">
-        <v>3.03543</v>
+        <v>3.14447</v>
       </c>
       <c r="N57" t="n">
         <v>3.924</v>
@@ -9874,10 +9874,10 @@
         <v>0.48</v>
       </c>
       <c r="G118" t="n">
-        <v>1.36229698331643</v>
+        <v>1.36032766201337</v>
       </c>
       <c r="H118" t="n">
-        <v>6.59620648280937</v>
+        <v>6.53515752241437</v>
       </c>
       <c r="I118" t="n">
         <v>6.415</v>
